--- a/SortingResearch/TimesResults100_4100.xlsx
+++ b/SortingResearch/TimesResults100_4100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidnatroshvili/CLionProjects/CPP_AaDS_private/SortingResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386C480E-18DA-2A4E-8901-246B710CA8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B017DB9D-7755-B74B-A195-6B9E709D9B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>размеры массива</t>
   </si>
@@ -180,12 +180,33 @@
   <si>
     <t>MergeSort отсортированный в обратном порядке</t>
   </si>
+  <si>
+    <t>Работает быстрее на элементах 0-5</t>
+  </si>
+  <si>
+    <t>Работает быстрее на почти отсортированном массиве</t>
+  </si>
+  <si>
+    <t>Работает быстрее на отсортированном в обратном порядке массиве</t>
+  </si>
+  <si>
+    <t>Пирамидальная сортировка работает быстрее остальных на элементах 0-5</t>
+  </si>
+  <si>
+    <t>Быстрая сортировка работает быстрее остальных на элементах 0-4000</t>
+  </si>
+  <si>
+    <t>Быстрая сортировка работает быстрее остальных на почти отсортированном массиве</t>
+  </si>
+  <si>
+    <t>Сортировка слиянием работает быстрее на массиве отсортированном в обратном</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +218,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -237,11 +265,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -45445,16 +45474,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>132603</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>94503</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>300789</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>111404</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>670485</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>36232</xdr:rowOff>
+      <xdr:rowOff>36233</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -45625,10 +45654,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>116541</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>102720</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523287</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>82315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -45915,14 +45944,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>439751</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>40969</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>103137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>81936</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>93223</xdr:rowOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>155392</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -45986,15 +46015,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>264241</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>174931</xdr:rowOff>
+      <xdr:colOff>199565</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>139654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>266289</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>20483</xdr:rowOff>
+      <xdr:colOff>201613</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>173354</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -46379,10 +46408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA42"/>
+  <dimension ref="A1:BA130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="62" workbookViewId="0">
-      <selection activeCell="AB98" sqref="AB98"/>
+    <sheetView tabSelected="1" topLeftCell="X92" zoomScale="93" workbookViewId="0">
+      <selection activeCell="AO130" sqref="AO130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -53149,8 +53178,74 @@
         <v>1223840</v>
       </c>
     </row>
+    <row r="61" spans="3:48" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>53</v>
+      </c>
+      <c r="K61" t="s">
+        <v>53</v>
+      </c>
+      <c r="R61" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO79" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="K80" t="s">
+        <v>55</v>
+      </c>
+      <c r="R80" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N89" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="24:38" x14ac:dyDescent="0.2">
+      <c r="AL105" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="109" spans="24:38" x14ac:dyDescent="0.2">
+      <c r="X109" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L130" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>